--- a/Burndown Chart.xlsx
+++ b/Burndown Chart.xlsx
@@ -53,14 +53,16 @@
     <font>
       <sz val="12"/>
       <color rgb="FF24292E"/>
-      <name val="Segoe UI"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF24292E"/>
-      <name val="Segoe UI"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -110,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -118,14 +120,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1426,15 +1430,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1444,82 +1448,95 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>18</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="6">
         <f>B2-D2</f>
         <v>13</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>5</v>
       </c>
+      <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <v>9</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="6">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>0</v>
       </c>
+      <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="6">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>0</v>
       </c>
+      <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>0</v>
       </c>
-      <c r="C5" s="3">
-        <f t="shared" ref="C3:C6" si="0">B5-D5</f>
+      <c r="C5" s="6">
+        <f t="shared" ref="C5:C6" si="0">B5-D5</f>
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>0</v>
       </c>
+      <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>0</v>
       </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
